--- a/main/words.xlsx
+++ b/main/words.xlsx
@@ -443,14 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ability, absence, absent, absolute, absolutely, absorb, abstract, abundant, abuse, academic, academy, accelerate, acceleration, accent, accept, acceptable</t>
+          <t>abandon, ability, able, abnormal, aboard, about, above, abroad, absence, absent, absolute, absolutely, absorb, abstract, abundant</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>access, accessory, accident, accidental, accommodate, accommodation, accompany, accomplish, accord, accordance, accordingly, account, accumulate, accuracy, accurate, accuse</t>
+          <t>abuse, academic, academy, accelerate, acceleration, accent, accept, acceptable, acceptance, access, accessory, accident, accidental, accommodate, accommodation</t>
         </is>
       </c>
     </row>
